--- a/data/trans_dic/P22$mutuaSPriv-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P22$mutuaSPriv-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,17 +725,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,89; 2,61</t>
+          <t>0,87; 2,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,1; 1,36</t>
+          <t>0,1; 1,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,94</t>
+          <t>0,0; 0,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,42 +745,42 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,65; 1,83</t>
+          <t>0,63; 1,88</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,31; 1,36</t>
+          <t>0,32; 1,38</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,11; 1,06</t>
+          <t>0,13; 1,09</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,24; 1,17</t>
+          <t>0,22; 1,3</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,91; 1,89</t>
+          <t>0,93; 1,84</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,34; 1,05</t>
+          <t>0,31; 1,09</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,15; 0,81</t>
+          <t>0,14; 0,8</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,17; 0,75</t>
+          <t>0,17; 0,74</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,34; 2,77</t>
+          <t>1,34; 2,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,78; 3,32</t>
+          <t>1,76; 3,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,09; 2,27</t>
+          <t>1,02; 2,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,45; 3,24</t>
+          <t>1,51; 3,24</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,31; 2,67</t>
+          <t>1,21; 2,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,09; 2,51</t>
+          <t>1,09; 2,46</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,67; 1,67</t>
+          <t>0,61; 1,66</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,94; 2,0</t>
+          <t>0,91; 1,99</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,48; 2,5</t>
+          <t>1,46; 2,44</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,6; 2,65</t>
+          <t>1,61; 2,7</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,99; 1,8</t>
+          <t>0,96; 1,75</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,38; 2,45</t>
+          <t>1,39; 2,43</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,37; 5,67</t>
+          <t>2,53; 5,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,9; 7,66</t>
+          <t>2,89; 7,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,66; 9,11</t>
+          <t>4,53; 9,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,6; 8,11</t>
+          <t>4,3; 8,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,41; 7,72</t>
+          <t>3,38; 7,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,88; 9,07</t>
+          <t>4,05; 9,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,35; 8,34</t>
+          <t>4,19; 8,12</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,22; 10,27</t>
+          <t>6,26; 10,54</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,3; 5,79</t>
+          <t>3,32; 6,01</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,02; 7,36</t>
+          <t>3,89; 7,2</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,95; 7,77</t>
+          <t>4,95; 8,1</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,81; 8,5</t>
+          <t>5,82; 8,53</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,68; 2,71</t>
+          <t>1,66; 2,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,74; 2,8</t>
+          <t>1,73; 2,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,64; 2,71</t>
+          <t>1,62; 2,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,94; 3,43</t>
+          <t>2,03; 3,44</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,69; 2,67</t>
+          <t>1,63; 2,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,43; 2,48</t>
+          <t>1,44; 2,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,24; 2,2</t>
+          <t>1,28; 2,18</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,91; 2,97</t>
+          <t>1,9; 3,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,78; 2,5</t>
+          <t>1,77; 2,49</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,7; 2,41</t>
+          <t>1,66; 2,43</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,55; 2,22</t>
+          <t>1,57; 2,25</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,14; 3,02</t>
+          <t>2,08; 2,95</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que, al menor, es beneficiaria de Mutualidad de Estado (Privado)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>15612</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>4938</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>2101</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>465</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>15546</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>9121</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>4559</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>4235</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>31158</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>14058</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>6660</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>4700</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>8984; 26269</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1016; 12708</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6769</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2345</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>8254; 24720</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>4222; 18467</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>1271; 10811</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1624; 9793</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>21762; 43101</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>7161; 25127</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>2406; 13990</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>2114; 9368</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>33696</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>48006</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>32341</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>52481</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>29509</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>28943</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>21177</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>31238</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>63206</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>76948</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>53518</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>83719</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>22612; 47037</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>34572; 67333</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>21114; 46801</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>34566; 74182</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>19256; 41713</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>19218; 43234</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>12169; 33012</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>20289; 44633</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>47681; 79893</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>59880; 100415</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>38957; 71193</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>62890; 110245</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>21076</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>23208</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>35800</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>39415</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>24903</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>28869</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>32903</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>52810</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>45979</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>52077</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>68703</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>92225</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>13950; 31957</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>13922; 37759</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>24749; 49474</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>27817; 52486</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>16108; 36407</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>18576; 42974</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>23015; 44615</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>41318; 69614</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>34107; 61785</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>36559; 67620</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>54241; 88666</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>76054; 111548</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>70385</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>76151</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>70242</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>92361</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>69958</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>66933</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>58639</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>88283</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>140343</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>143084</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>128882</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>180644</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>54170; 88277</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>58999; 96079</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>54538; 90639</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>69955; 118577</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>54954; 88275</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>51166; 86582</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>45103; 76714</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>69450; 109512</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>117526; 165710</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>115993; 169274</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>108602; 155015</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>147697; 209814</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>